--- a/format.xlsx
+++ b/format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B099BD3-5BD8-497F-A9EE-68D2B1F6C638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D16C2E-E125-4584-9FC7-3A5A1A8FD994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="708">
   <si>
     <t>Kode Mesin</t>
   </si>
@@ -2138,6 +2138,12 @@
   </si>
   <si>
     <t>WIMBVY</t>
+  </si>
+  <si>
+    <t>JENIS MESIN</t>
+  </si>
+  <si>
+    <t>NAMAMESIN</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2208,11 +2214,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2220,6 +2237,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2440,10 +2460,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2454,7 +2474,7 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2479,8 +2499,11 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -2505,8 +2528,11 @@
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2531,8 +2557,11 @@
       <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2557,8 +2586,11 @@
       <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -2583,8 +2615,11 @@
       <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -2609,8 +2644,11 @@
       <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -2635,8 +2673,11 @@
       <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -2661,8 +2702,11 @@
       <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -2687,8 +2731,11 @@
       <c r="H9" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -2713,8 +2760,11 @@
       <c r="H10" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -2739,8 +2789,11 @@
       <c r="H11" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>83</v>
       </c>
@@ -2765,8 +2818,11 @@
       <c r="H12" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -2791,8 +2847,11 @@
       <c r="H13" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
@@ -2817,8 +2876,11 @@
       <c r="H14" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>103</v>
       </c>
@@ -2843,8 +2905,11 @@
       <c r="H15" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
@@ -2869,8 +2934,11 @@
       <c r="H16" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2895,8 +2963,11 @@
       <c r="H17" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -2921,8 +2992,11 @@
       <c r="H18" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>131</v>
       </c>
@@ -2947,8 +3021,11 @@
       <c r="H19" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>138</v>
       </c>
@@ -2973,8 +3050,11 @@
       <c r="H20" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>145</v>
       </c>
@@ -2999,8 +3079,11 @@
       <c r="H21" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>152</v>
       </c>
@@ -3025,8 +3108,11 @@
       <c r="H22" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>158</v>
       </c>
@@ -3051,8 +3137,11 @@
       <c r="H23" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>165</v>
       </c>
@@ -3077,8 +3166,11 @@
       <c r="H24" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>172</v>
       </c>
@@ -3103,8 +3195,11 @@
       <c r="H25" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
@@ -3129,8 +3224,11 @@
       <c r="H26" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>185</v>
       </c>
@@ -3155,8 +3253,11 @@
       <c r="H27" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>192</v>
       </c>
@@ -3181,8 +3282,11 @@
       <c r="H28" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>199</v>
       </c>
@@ -3207,8 +3311,11 @@
       <c r="H29" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>206</v>
       </c>
@@ -3233,8 +3340,11 @@
       <c r="H30" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>213</v>
       </c>
@@ -3259,8 +3369,11 @@
       <c r="H31" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>220</v>
       </c>
@@ -3285,8 +3398,11 @@
       <c r="H32" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>227</v>
       </c>
@@ -3311,8 +3427,11 @@
       <c r="H33" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>234</v>
       </c>
@@ -3337,8 +3456,11 @@
       <c r="H34" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>241</v>
       </c>
@@ -3363,8 +3485,11 @@
       <c r="H35" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>248</v>
       </c>
@@ -3389,8 +3514,11 @@
       <c r="H36" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>255</v>
       </c>
@@ -3415,8 +3543,11 @@
       <c r="H37" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>262</v>
       </c>
@@ -3441,8 +3572,11 @@
       <c r="H38" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>269</v>
       </c>
@@ -3467,8 +3601,11 @@
       <c r="H39" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>276</v>
       </c>
@@ -3493,8 +3630,11 @@
       <c r="H40" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>283</v>
       </c>
@@ -3519,8 +3659,11 @@
       <c r="H41" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>290</v>
       </c>
@@ -3545,8 +3688,11 @@
       <c r="H42" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>297</v>
       </c>
@@ -3571,8 +3717,11 @@
       <c r="H43" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>304</v>
       </c>
@@ -3597,8 +3746,11 @@
       <c r="H44" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>311</v>
       </c>
@@ -3623,8 +3775,11 @@
       <c r="H45" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>318</v>
       </c>
@@ -3649,8 +3804,11 @@
       <c r="H46" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>325</v>
       </c>
@@ -3675,8 +3833,11 @@
       <c r="H47" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>332</v>
       </c>
@@ -3701,8 +3862,11 @@
       <c r="H48" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>339</v>
       </c>
@@ -3727,8 +3891,11 @@
       <c r="H49" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>346</v>
       </c>
@@ -3753,8 +3920,11 @@
       <c r="H50" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>352</v>
       </c>
@@ -3779,8 +3949,11 @@
       <c r="H51" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>359</v>
       </c>
@@ -3805,8 +3978,11 @@
       <c r="H52" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>366</v>
       </c>
@@ -3831,8 +4007,11 @@
       <c r="H53" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>373</v>
       </c>
@@ -3857,8 +4036,11 @@
       <c r="H54" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>380</v>
       </c>
@@ -3883,8 +4065,11 @@
       <c r="H55" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>387</v>
       </c>
@@ -3909,8 +4094,11 @@
       <c r="H56" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>392</v>
       </c>
@@ -3935,8 +4123,11 @@
       <c r="H57" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>399</v>
       </c>
@@ -3961,8 +4152,11 @@
       <c r="H58" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>406</v>
       </c>
@@ -3987,8 +4181,11 @@
       <c r="H59" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>413</v>
       </c>
@@ -4013,8 +4210,11 @@
       <c r="H60" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>420</v>
       </c>
@@ -4039,8 +4239,11 @@
       <c r="H61" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>427</v>
       </c>
@@ -4065,8 +4268,11 @@
       <c r="H62" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>434</v>
       </c>
@@ -4091,8 +4297,11 @@
       <c r="H63" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>441</v>
       </c>
@@ -4117,8 +4326,11 @@
       <c r="H64" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>448</v>
       </c>
@@ -4143,8 +4355,11 @@
       <c r="H65" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>455</v>
       </c>
@@ -4169,8 +4384,11 @@
       <c r="H66" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>462</v>
       </c>
@@ -4195,8 +4413,11 @@
       <c r="H67" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>469</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="H68" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>476</v>
       </c>
@@ -4247,8 +4471,11 @@
       <c r="H69" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>483</v>
       </c>
@@ -4273,8 +4500,11 @@
       <c r="H70" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>490</v>
       </c>
@@ -4299,8 +4529,11 @@
       <c r="H71" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>497</v>
       </c>
@@ -4325,8 +4558,11 @@
       <c r="H72" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>504</v>
       </c>
@@ -4351,8 +4587,11 @@
       <c r="H73" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>511</v>
       </c>
@@ -4377,8 +4616,11 @@
       <c r="H74" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>518</v>
       </c>
@@ -4403,8 +4645,11 @@
       <c r="H75" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>525</v>
       </c>
@@ -4429,8 +4674,11 @@
       <c r="H76" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>532</v>
       </c>
@@ -4455,8 +4703,11 @@
       <c r="H77" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>539</v>
       </c>
@@ -4481,8 +4732,11 @@
       <c r="H78" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>546</v>
       </c>
@@ -4507,8 +4761,11 @@
       <c r="H79" s="3" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>553</v>
       </c>
@@ -4533,8 +4790,11 @@
       <c r="H80" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>560</v>
       </c>
@@ -4559,8 +4819,11 @@
       <c r="H81" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>567</v>
       </c>
@@ -4585,8 +4848,11 @@
       <c r="H82" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>574</v>
       </c>
@@ -4611,8 +4877,11 @@
       <c r="H83" s="3" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>581</v>
       </c>
@@ -4637,8 +4906,11 @@
       <c r="H84" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>588</v>
       </c>
@@ -4663,8 +4935,11 @@
       <c r="H85" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>594</v>
       </c>
@@ -4689,8 +4964,11 @@
       <c r="H86" s="3" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>601</v>
       </c>
@@ -4715,8 +4993,11 @@
       <c r="H87" s="3" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>608</v>
       </c>
@@ -4741,8 +5022,11 @@
       <c r="H88" s="3" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>615</v>
       </c>
@@ -4767,8 +5051,11 @@
       <c r="H89" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>622</v>
       </c>
@@ -4793,8 +5080,11 @@
       <c r="H90" s="3" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>629</v>
       </c>
@@ -4819,8 +5109,11 @@
       <c r="H91" s="3" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>636</v>
       </c>
@@ -4845,8 +5138,11 @@
       <c r="H92" s="3" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>643</v>
       </c>
@@ -4871,8 +5167,11 @@
       <c r="H93" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>650</v>
       </c>
@@ -4897,8 +5196,11 @@
       <c r="H94" s="3" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>657</v>
       </c>
@@ -4923,8 +5225,11 @@
       <c r="H95" s="3" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>664</v>
       </c>
@@ -4949,8 +5254,11 @@
       <c r="H96" s="3" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>671</v>
       </c>
@@ -4975,8 +5283,11 @@
       <c r="H97" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>678</v>
       </c>
@@ -5001,8 +5312,11 @@
       <c r="H98" s="3" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>685</v>
       </c>
@@ -5027,8 +5341,11 @@
       <c r="H99" s="3" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>692</v>
       </c>
@@ -5053,8 +5370,11 @@
       <c r="H100" s="3" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>699</v>
       </c>
@@ -5079,8 +5399,11 @@
       <c r="H101" s="3" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I101" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5089,7 +5412,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5098,7 +5421,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5107,7 +5430,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5116,7 +5439,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5125,7 +5448,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5134,7 +5457,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5143,7 +5466,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5152,7 +5475,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5161,7 +5484,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5170,7 +5493,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
